--- a/biology/Zoologie/Harpadon/Harpadon.xlsx
+++ b/biology/Zoologie/Harpadon/Harpadon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Harpadon est un genre de poissons de la famille des Synodontidae.
 </t>
@@ -511,10 +523,12 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le genre Harpadon a été décrit en 1825 par le naturaliste français Charles Alexandre Lesueur (1778-1846) comme étant un sous-genre de Saurus.
-Harpadon a pour synonymes[1] :
+Harpadon a pour synonymes :
 Harpodon Cuvier, 1829
 Peltharpadon Fowler, 1934
 Sauridichthys Bleeker, 1858
@@ -546,9 +560,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (3 septembre 2021)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (3 septembre 2021) :
 Harpadon erythraeus Klausewitz, 1983
 Harpadon microchir Günther, 1878
 Harpadon mortenseni Hardenberg, 1933
@@ -583,7 +599,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>(en) C. A. Lesueur, « Description of a new fish of the genus Salmo », Journal of the Academy of Natural Sciences of Philadelphia, vol. 5, no 1,‎ juillet 1825, p. 48-51 (ISSN 0885-3479).</t>
         </is>
